--- a/策划案/镇魂街/装备图标需求.xlsx
+++ b/策划案/镇魂街/装备图标需求.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="261">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -390,11 +390,537 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看下是否可以把柄去掉</t>
+    <t>icon_2002101</t>
+  </si>
+  <si>
+    <t>icon_2002102</t>
+  </si>
+  <si>
+    <t>icon_2002103</t>
+  </si>
+  <si>
+    <t>icon_2002104</t>
+  </si>
+  <si>
+    <t>icon_2002105</t>
+  </si>
+  <si>
+    <t>icon_2002106</t>
+  </si>
+  <si>
+    <t>icon_2002107</t>
+  </si>
+  <si>
+    <t>icon_2002108</t>
+  </si>
+  <si>
+    <t>icon_2002415</t>
+  </si>
+  <si>
+    <t>icon_2002418</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看下能否把扇子柄涂掉</t>
+    <t>icon_2002417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2002411</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2002412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2002413</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2001101</t>
+  </si>
+  <si>
+    <t>icon_2001102</t>
+  </si>
+  <si>
+    <t>icon_2001103</t>
+  </si>
+  <si>
+    <t>icon_2001104</t>
+  </si>
+  <si>
+    <t>icon_2001105</t>
+  </si>
+  <si>
+    <t>icon_2001106</t>
+  </si>
+  <si>
+    <t>icon_2001107</t>
+  </si>
+  <si>
+    <t>icon_2001108</t>
+  </si>
+  <si>
+    <t>icon_2001431</t>
+  </si>
+  <si>
+    <t>icon_2001432</t>
+  </si>
+  <si>
+    <t>icon_2001433</t>
+  </si>
+  <si>
+    <t>icon_2001434</t>
+  </si>
+  <si>
+    <t>icon_2001435</t>
+  </si>
+  <si>
+    <t>icon_2001436</t>
+  </si>
+  <si>
+    <t>icon_2001437</t>
+  </si>
+  <si>
+    <t>icon_2001438</t>
+  </si>
+  <si>
+    <t>icon_2003101</t>
+  </si>
+  <si>
+    <t>icon_2003102</t>
+  </si>
+  <si>
+    <t>icon_2003103</t>
+  </si>
+  <si>
+    <t>icon_2003104</t>
+  </si>
+  <si>
+    <t>icon_2003105</t>
+  </si>
+  <si>
+    <t>icon_2003106</t>
+  </si>
+  <si>
+    <t>icon_2003107</t>
+  </si>
+  <si>
+    <t>icon_2003108</t>
+  </si>
+  <si>
+    <t>icon_2003421</t>
+  </si>
+  <si>
+    <t>icon_2003422</t>
+  </si>
+  <si>
+    <t>icon_2003423</t>
+  </si>
+  <si>
+    <t>icon_2003424</t>
+  </si>
+  <si>
+    <t>icon_2003425</t>
+  </si>
+  <si>
+    <t>icon_2003426</t>
+  </si>
+  <si>
+    <t>icon_2004101</t>
+  </si>
+  <si>
+    <t>icon_2004102</t>
+  </si>
+  <si>
+    <t>icon_2004103</t>
+  </si>
+  <si>
+    <t>icon_2004104</t>
+  </si>
+  <si>
+    <t>icon_2004105</t>
+  </si>
+  <si>
+    <t>icon_2004106</t>
+  </si>
+  <si>
+    <t>icon_2004107</t>
+  </si>
+  <si>
+    <t>icon_2004108</t>
+  </si>
+  <si>
+    <t>icon_2004421</t>
+  </si>
+  <si>
+    <t>icon_2004422</t>
+  </si>
+  <si>
+    <t>icon_2004423</t>
+  </si>
+  <si>
+    <t>icon_2004428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2004427</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2004425</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2005101</t>
+  </si>
+  <si>
+    <t>icon_2005102</t>
+  </si>
+  <si>
+    <t>icon_2005103</t>
+  </si>
+  <si>
+    <t>icon_2005104</t>
+  </si>
+  <si>
+    <t>icon_2005105</t>
+  </si>
+  <si>
+    <t>icon_2005106</t>
+  </si>
+  <si>
+    <t>icon_2005107</t>
+  </si>
+  <si>
+    <t>icon_2005108</t>
+  </si>
+  <si>
+    <t>icon_2005421</t>
+  </si>
+  <si>
+    <t>icon_2005422</t>
+  </si>
+  <si>
+    <t>icon_2005423</t>
+  </si>
+  <si>
+    <t>icon_2005424</t>
+  </si>
+  <si>
+    <t>icon_2005425</t>
+  </si>
+  <si>
+    <t>icon_2005426</t>
+  </si>
+  <si>
+    <t>icon_2005431</t>
+  </si>
+  <si>
+    <t>icon_2005432</t>
+  </si>
+  <si>
+    <t>icon_2005433</t>
+  </si>
+  <si>
+    <t>icon_2005434</t>
+  </si>
+  <si>
+    <t>icon_2005436</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2006101</t>
+  </si>
+  <si>
+    <t>icon_2006102</t>
+  </si>
+  <si>
+    <t>icon_2006103</t>
+  </si>
+  <si>
+    <t>icon_2006104</t>
+  </si>
+  <si>
+    <t>icon_2006105</t>
+  </si>
+  <si>
+    <t>icon_2006106</t>
+  </si>
+  <si>
+    <t>icon_2006107</t>
+  </si>
+  <si>
+    <t>icon_2006108</t>
+  </si>
+  <si>
+    <t>icon_2006411</t>
+  </si>
+  <si>
+    <t>icon_2006412</t>
+  </si>
+  <si>
+    <t>icon_2006413</t>
+  </si>
+  <si>
+    <t>icon_2006418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2006417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2006415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2007101</t>
+  </si>
+  <si>
+    <t>icon_2007102</t>
+  </si>
+  <si>
+    <t>icon_2007103</t>
+  </si>
+  <si>
+    <t>icon_2007104</t>
+  </si>
+  <si>
+    <t>icon_2007105</t>
+  </si>
+  <si>
+    <t>icon_2007106</t>
+  </si>
+  <si>
+    <t>icon_2007107</t>
+  </si>
+  <si>
+    <t>icon_2007108</t>
+  </si>
+  <si>
+    <t>icon_2007421</t>
+  </si>
+  <si>
+    <t>icon_2007422</t>
+  </si>
+  <si>
+    <t>icon_2007423</t>
+  </si>
+  <si>
+    <t>icon_2007424</t>
+  </si>
+  <si>
+    <t>icon_2007425</t>
+  </si>
+  <si>
+    <t>icon_2007426</t>
+  </si>
+  <si>
+    <t>icon_2008101</t>
+  </si>
+  <si>
+    <t>icon_2008102</t>
+  </si>
+  <si>
+    <t>icon_2008103</t>
+  </si>
+  <si>
+    <t>icon_2008104</t>
+  </si>
+  <si>
+    <t>icon_2008105</t>
+  </si>
+  <si>
+    <t>icon_2008106</t>
+  </si>
+  <si>
+    <t>icon_2008107</t>
+  </si>
+  <si>
+    <t>icon_2008108</t>
+  </si>
+  <si>
+    <t>icon_2008411</t>
+  </si>
+  <si>
+    <t>icon_2008412</t>
+  </si>
+  <si>
+    <t>icon_2008413</t>
+  </si>
+  <si>
+    <t>icon_2008418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2008417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2008415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2008421</t>
+  </si>
+  <si>
+    <t>icon_2008422</t>
+  </si>
+  <si>
+    <t>icon_2008423</t>
+  </si>
+  <si>
+    <t>icon_2008428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2008427</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2009101</t>
+  </si>
+  <si>
+    <t>icon_2009102</t>
+  </si>
+  <si>
+    <t>icon_2009103</t>
+  </si>
+  <si>
+    <t>icon_2009104</t>
+  </si>
+  <si>
+    <t>icon_2009105</t>
+  </si>
+  <si>
+    <t>icon_2009106</t>
+  </si>
+  <si>
+    <t>icon_2009107</t>
+  </si>
+  <si>
+    <t>icon_2009108</t>
+  </si>
+  <si>
+    <t>icon_2009421</t>
+  </si>
+  <si>
+    <t>icon_2009422</t>
+  </si>
+  <si>
+    <t>icon_2009423</t>
+  </si>
+  <si>
+    <t>icon_2009424</t>
+  </si>
+  <si>
+    <t>icon_2009425</t>
+  </si>
+  <si>
+    <t>icon_2009426</t>
+  </si>
+  <si>
+    <t>icon_2010101</t>
+  </si>
+  <si>
+    <t>icon_2010102</t>
+  </si>
+  <si>
+    <t>icon_2010103</t>
+  </si>
+  <si>
+    <t>icon_2010104</t>
+  </si>
+  <si>
+    <t>icon_2010105</t>
+  </si>
+  <si>
+    <t>icon_2010106</t>
+  </si>
+  <si>
+    <t>icon_2010107</t>
+  </si>
+  <si>
+    <t>icon_2010108</t>
+  </si>
+  <si>
+    <t>icon_2010411</t>
+  </si>
+  <si>
+    <t>icon_2010412</t>
+  </si>
+  <si>
+    <t>icon_2010413</t>
+  </si>
+  <si>
+    <t>icon_2010418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2010417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2010415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_2011101</t>
+  </si>
+  <si>
+    <t>icon_2011102</t>
+  </si>
+  <si>
+    <t>icon_2011103</t>
+  </si>
+  <si>
+    <t>icon_2011104</t>
+  </si>
+  <si>
+    <t>icon_2011105</t>
+  </si>
+  <si>
+    <t>icon_2011106</t>
+  </si>
+  <si>
+    <t>icon_2011107</t>
+  </si>
+  <si>
+    <t>icon_2011108</t>
+  </si>
+  <si>
+    <t>icon_2011421</t>
+  </si>
+  <si>
+    <t>icon_2011422</t>
+  </si>
+  <si>
+    <t>icon_2011423</t>
+  </si>
+  <si>
+    <t>icon_2011424</t>
+  </si>
+  <si>
+    <t>icon_2011425</t>
+  </si>
+  <si>
+    <t>icon_2011426</t>
+  </si>
+  <si>
+    <t>icon_2011431</t>
+  </si>
+  <si>
+    <t>icon_2011432</t>
+  </si>
+  <si>
+    <t>icon_2011433</t>
+  </si>
+  <si>
+    <t>icon_2011434</t>
+  </si>
+  <si>
+    <t>icon_2011436</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -976,21 +1502,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,6 +1546,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9084,12 +9610,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -9098,10 +9624,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9112,26 +9638,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -9140,10 +9666,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -9152,147 +9678,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -9305,16 +9835,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -9343,10 +9869,10 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9541,29 +10067,29 @@
       <c r="B12" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="18">
-        <v>2101101</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2101102</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2101103</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2101104</v>
-      </c>
-      <c r="G12" s="18">
-        <v>2101105</v>
-      </c>
-      <c r="H12" s="18">
-        <v>2101106</v>
-      </c>
-      <c r="I12" s="18">
-        <v>2101107</v>
-      </c>
-      <c r="J12" s="18">
-        <v>2101108</v>
+      <c r="C12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9571,150 +10097,262 @@
         <v>52</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="18">
-        <v>2101431</v>
-      </c>
-      <c r="D13" s="18">
-        <v>2101432</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2101433</v>
-      </c>
-      <c r="F13" s="18">
-        <v>2101434</v>
-      </c>
-      <c r="G13" s="18">
-        <v>2101435</v>
-      </c>
-      <c r="H13" s="18">
-        <v>2101436</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2101437</v>
-      </c>
-      <c r="J13" s="18">
-        <v>2101438</v>
+      <c r="C13" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="41"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="C20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="40"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
@@ -9722,91 +10360,171 @@
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="44"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="C26" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="C27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
@@ -9814,133 +10532,247 @@
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="41"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="C29" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="C30" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="44"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="C31" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="C32" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="41"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="C33" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="C34" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="40"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="C35" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="C36" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
